--- a/node/baiduGet/lib/医院.xlsx
+++ b/node/baiduGet/lib/医院.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\tips-github\node\baiduGet\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCE73F4-6117-4AF6-8D4C-FD8069C15D63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60AAC93-04C9-44B7-AFCA-CFDBAEA4CBC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="162">
   <si>
     <t>序号</t>
   </si>
@@ -31,538 +31,481 @@
     <t>经纬度</t>
   </si>
   <si>
-    <t>广东汕尾红海湾经济开发区东洲街道社区卫生服务中心</t>
+    <t>汕头市中心医院</t>
+  </si>
+  <si>
+    <t>116.7004324264166,23.36188017826163</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>汕头大学医学院第一附属医院</t>
+  </si>
+  <si>
+    <t>116.71313475647617,23.368770712689184</t>
+  </si>
+  <si>
+    <t>汕头大学医学院第二附属医院</t>
+  </si>
+  <si>
+    <t>116.72415292180686,23.39981332031051</t>
+  </si>
+  <si>
+    <t>汕头大学医学院附属肿瘤医院</t>
+  </si>
+  <si>
+    <t>116.7019470467602,23.3608713795431</t>
+  </si>
+  <si>
+    <t>汕头市第二人民医院</t>
+  </si>
+  <si>
+    <t>116.74382446501062,23.380713117192467</t>
+  </si>
+  <si>
+    <t>汕头大学·香港中文大学联合汕头国际眼科中心</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>115.34562633992742,22.7323287391812</t>
+    <t>108.79310628196001,29.529931618498022</t>
+  </si>
+  <si>
+    <t>商圈</t>
+  </si>
+  <si>
+    <t>汕头市中医医院</t>
+  </si>
+  <si>
+    <t>116.69338734957552,23.35971501543697</t>
+  </si>
+  <si>
+    <t>汕头大学精神卫生中心</t>
+  </si>
+  <si>
+    <t>116.72296567004186,23.432914848289276</t>
+  </si>
+  <si>
+    <t>汕头市第四人民医院</t>
+  </si>
+  <si>
+    <t>116.69421329747469,23.380317927352756</t>
+  </si>
+  <si>
+    <t>汕头市妇幼保健院</t>
+  </si>
+  <si>
+    <t>116.70779198833866,23.37775590262994</t>
+  </si>
+  <si>
+    <t>汕头市皮肤性病防治院</t>
+  </si>
+  <si>
+    <t>116.70447189429353,23.367318436907876</t>
+  </si>
+  <si>
+    <t>汕头市结核病防治所</t>
+  </si>
+  <si>
+    <t>116.69951249330346,23.359330877596292</t>
+  </si>
+  <si>
+    <t>汕头大学医学院口腔门诊部</t>
+  </si>
+  <si>
+    <t>116.73235651721292,23.37436384306543</t>
   </si>
   <si>
     <t>UNKNOWN</t>
   </si>
   <si>
-    <t>广东汕尾红海湾经济开发区人民医院</t>
-  </si>
-  <si>
-    <t>115.37515452237004,22.76727361035759</t>
-  </si>
-  <si>
-    <t>医疗</t>
-  </si>
-  <si>
-    <t>广东汕尾红海湾经济开发区遮浪街道社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>115.58500947718245,22.67340310764336</t>
-  </si>
-  <si>
-    <t>广东汕尾星都经济开发区卫生院</t>
-  </si>
-  <si>
-    <t>115.3729242893998,22.77873050016389</t>
+    <t>汕头大学校医院</t>
+  </si>
+  <si>
+    <t>汕头市金平区人民医院</t>
+  </si>
+  <si>
+    <t>116.71155127562542,23.376668825443293</t>
+  </si>
+  <si>
+    <t>汕头市金平区中医医院</t>
+  </si>
+  <si>
+    <t>汕头市金平区鮀浦医院</t>
+  </si>
+  <si>
+    <t>116.70955006744148,23.371750385773453</t>
+  </si>
+  <si>
+    <t>区县</t>
+  </si>
+  <si>
+    <t>汕头市金平区妇幼保健院</t>
+  </si>
+  <si>
+    <t>汕头市金平区新福街道社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>116.68173430682586,23.363612200692387</t>
+  </si>
+  <si>
+    <t>汕头市金平区乌桥街道社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>116.67887419191358,23.367091928381384</t>
+  </si>
+  <si>
+    <t>汕头市金平区金厦街道社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>116.71624510965935,23.378838671178546</t>
+  </si>
+  <si>
+    <t>乡镇</t>
+  </si>
+  <si>
+    <t>汕头市福利院</t>
+  </si>
+  <si>
+    <t>116.68852864054833,23.35909171772515</t>
   </si>
   <si>
     <t>城市</t>
   </si>
   <si>
-    <t>广东省铜锣湖农场职工医院</t>
-  </si>
-  <si>
-    <t>115.88311366074036,23.01416777445006</t>
-  </si>
-  <si>
-    <t>海丰县城东镇卫生院</t>
-  </si>
-  <si>
-    <t>115.35240035936911,22.981144545303696</t>
-  </si>
-  <si>
-    <t>海丰县赤坑镇中心卫生院</t>
-  </si>
-  <si>
-    <t>115.46968374384896,22.8584822600219</t>
-  </si>
-  <si>
-    <t>海丰县赤石镇卫生院</t>
-  </si>
-  <si>
-    <t>115.07984193547165,22.880782261496332</t>
-  </si>
-  <si>
-    <t>乡镇</t>
-  </si>
-  <si>
-    <t>海丰县大湖镇卫生院</t>
-  </si>
-  <si>
-    <t>115.57541798089952,22.84079302333093</t>
-  </si>
-  <si>
-    <t>海丰县鹅埠镇卫生院</t>
-  </si>
-  <si>
-    <t>115.0090913656817,22.8347634370553</t>
-  </si>
-  <si>
-    <t>海丰县妇幼保健院</t>
-  </si>
-  <si>
-    <t>115.33896346602985,22.978126013321763</t>
-  </si>
-  <si>
-    <t>海丰县附城镇卫生院</t>
-  </si>
-  <si>
-    <t>115.34140514574418,22.971048228433858</t>
-  </si>
-  <si>
-    <t>海丰县公平镇中心卫生院</t>
-  </si>
-  <si>
-    <t>115.42592404497934,23.05623595089115</t>
-  </si>
-  <si>
-    <t>海丰县海城镇卫生院</t>
-  </si>
-  <si>
-    <t>115.3293674836092,22.968835040875934</t>
-  </si>
-  <si>
-    <t>海丰县后门镇中心卫生院</t>
-  </si>
-  <si>
-    <t>115.16632642956883,22.81782611482477</t>
-  </si>
-  <si>
-    <t>海丰县黄羌镇卫生院</t>
-  </si>
-  <si>
-    <t>115.42653775293066,23.158922938608512</t>
-  </si>
-  <si>
-    <t>海丰县可塘镇中心卫生院</t>
-  </si>
-  <si>
-    <t>115.45518344992195,22.960787404435568</t>
-  </si>
-  <si>
-    <t>海丰县联安镇卫生院</t>
-  </si>
-  <si>
-    <t>115.28645963797304,22.92843188998998</t>
-  </si>
-  <si>
-    <t>海丰县梅陇镇中心卫生院</t>
-  </si>
-  <si>
-    <t>115.2081908475419,22.894530222937345</t>
-  </si>
-  <si>
-    <t>海丰县彭湃纪念医院</t>
-  </si>
-  <si>
-    <t>115.34083308413459,22.973689348502905</t>
-  </si>
-  <si>
-    <t>海丰县皮肤病防治院</t>
-  </si>
-  <si>
-    <t>115.3687416585738,23.017209471237482</t>
-  </si>
-  <si>
-    <t>海丰县平东镇卫生院</t>
-  </si>
-  <si>
-    <t>115.48693879043505,23.10299112386384</t>
-  </si>
-  <si>
-    <t>海丰县陶河镇卫生院</t>
-  </si>
-  <si>
-    <t>115.4006821335643,22.902070889712295</t>
-  </si>
-  <si>
-    <t>海丰县小漠镇卫生院</t>
-  </si>
-  <si>
-    <t>115.0286924323267,22.758728117259565</t>
-  </si>
-  <si>
-    <t>海丰县中医医院</t>
-  </si>
-  <si>
-    <t>115.3339025268731,22.977312976154558</t>
-  </si>
-  <si>
-    <t>陆丰市八万镇卫生院</t>
-  </si>
-  <si>
-    <t>115.75915171255889,23.04289504559009</t>
-  </si>
-  <si>
-    <t>陆丰市陂洋镇卫生院</t>
-  </si>
-  <si>
-    <t>115.86464030257797,23.090035455627262</t>
-  </si>
-  <si>
-    <t>陆丰市博美镇中心卫生院</t>
-  </si>
-  <si>
-    <t>115.79829213046374,22.972988143585056</t>
-  </si>
-  <si>
-    <t>陆丰市城东街道社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>115.78802975191435,22.967876723872532</t>
-  </si>
-  <si>
-    <t>区县</t>
-  </si>
-  <si>
-    <t>陆丰市大安镇卫生院</t>
-  </si>
-  <si>
-    <t>115.63575473745823,23.077703019119834</t>
-  </si>
-  <si>
-    <t>陆丰市东海街道社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>陆丰市妇幼保健计划生育服务中心</t>
-  </si>
-  <si>
-    <t>陆丰市河西街道社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>陆丰市湖东镇卫生院</t>
-  </si>
-  <si>
-    <t>115.96093847804622,22.81951291440064</t>
-  </si>
-  <si>
-    <t>陆丰市甲东镇卫生院</t>
-  </si>
-  <si>
-    <t>116.10988487699552,22.878128549397456</t>
-  </si>
-  <si>
-    <t>陆丰市甲西镇卫生院</t>
-  </si>
-  <si>
-    <t>116.07005682688403,22.876982603100682</t>
-  </si>
-  <si>
-    <t>陆丰市甲子人民医院</t>
-  </si>
-  <si>
-    <t>116.07481734033934,22.876441504938335</t>
-  </si>
-  <si>
-    <t>陆丰市碣石人民医院</t>
-  </si>
-  <si>
-    <t>115.84006758924221,22.82251891263046</t>
-  </si>
-  <si>
-    <t>购物</t>
-  </si>
-  <si>
-    <t>陆丰市金厢镇卫生院</t>
-  </si>
-  <si>
-    <t>115.71564782145434,22.865165622830794</t>
-  </si>
-  <si>
-    <t>陆丰市慢性病防治站</t>
-  </si>
-  <si>
-    <t>115.66114261992536,22.952047281225887</t>
-  </si>
-  <si>
-    <t>陆丰市内湖镇卫生院</t>
-  </si>
-  <si>
-    <t>115.8372900834029,22.978737262297884</t>
-  </si>
-  <si>
-    <t>陆丰市南塘镇中心卫生院</t>
-  </si>
-  <si>
-    <t>115.91943540615932,22.915632655620698</t>
-  </si>
-  <si>
-    <t>陆丰市桥冲镇卫生院</t>
-  </si>
-  <si>
-    <t>115.80589751458683,22.897029924180973</t>
-  </si>
-  <si>
-    <t>陆丰市人民医院</t>
-  </si>
-  <si>
-    <t>115.66339894328082,22.953262126428363</t>
-  </si>
-  <si>
-    <t>陆丰市上英镇卫生院</t>
-  </si>
-  <si>
-    <t>115.56941101285459,22.888983874193862</t>
-  </si>
-  <si>
-    <t>陆丰市潭西镇卫生院</t>
-  </si>
-  <si>
-    <t>115.5600164970038,22.938209474686843</t>
-  </si>
-  <si>
-    <t>陆丰市西南镇卫生院</t>
-  </si>
-  <si>
-    <t>115.558691981462,23.063761540684485</t>
-  </si>
-  <si>
-    <t>陆丰市中医医院</t>
+    <t>金砂中医医院</t>
   </si>
   <si>
     <t>115.6380980419396,22.956840805263653</t>
   </si>
   <si>
-    <t>陆丰天栖精神病医院有限公司</t>
-  </si>
-  <si>
-    <t>陆河县东坑镇卫生院</t>
-  </si>
-  <si>
-    <t>115.735063309859,23.280131227612127</t>
-  </si>
-  <si>
-    <t>陆河县妇幼保健计划生育服务中心</t>
-  </si>
-  <si>
-    <t>115.6664827147057,23.307677076489913</t>
-  </si>
-  <si>
-    <t>陆河县河口人民医院</t>
-  </si>
-  <si>
-    <t>陆河县河田镇中心卫生院</t>
-  </si>
-  <si>
-    <t>115.66027937617804,23.31066186572935</t>
-  </si>
-  <si>
-    <t>陆河县螺溪镇卫生院</t>
-  </si>
-  <si>
-    <t>115.62972351246962,23.387964743777776</t>
-  </si>
-  <si>
-    <t>陆河县慢性病防治站</t>
-  </si>
-  <si>
-    <t>115.66784067416162,23.296256581489583</t>
-  </si>
-  <si>
-    <t>陆河县南万镇卫生院</t>
-  </si>
-  <si>
-    <t>115.54553136827039,23.338921712303097</t>
-  </si>
-  <si>
-    <t>陆河县人民医院</t>
-  </si>
-  <si>
-    <t>115.66816235556801,23.297679468090937</t>
-  </si>
-  <si>
-    <t>陆河县上护镇卫生院</t>
-  </si>
-  <si>
-    <t>115.59704321821388,23.25911566777763</t>
-  </si>
-  <si>
-    <t>陆河县水唇镇卫生院</t>
-  </si>
-  <si>
-    <t>115.76474642574779,23.321209610194032</t>
-  </si>
-  <si>
-    <t>陆河县新田镇卫生院</t>
-  </si>
-  <si>
-    <t>115.55488937698524,23.185458287841467</t>
-  </si>
-  <si>
-    <t>陆河县中医院</t>
-  </si>
-  <si>
-    <t>汕尾骨科医院</t>
-  </si>
-  <si>
-    <t>115.36431889271893,22.780254608091397</t>
-  </si>
-  <si>
-    <t>汕尾市城区东涌镇卫生院</t>
-  </si>
-  <si>
-    <t>115.42880891359825,22.79614683170359</t>
-  </si>
-  <si>
-    <t>汕尾市城区凤山街道社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>115.37217213819653,22.77751042115507</t>
-  </si>
-  <si>
-    <t>汕尾市城区妇幼保健计划生育服务中心</t>
-  </si>
-  <si>
-    <t>115.37153074806264,22.784551839489296</t>
-  </si>
-  <si>
-    <t>汕尾市城区红草中心卫生院</t>
-  </si>
-  <si>
-    <t>115.31023442245679,22.835562098837073</t>
-  </si>
-  <si>
-    <t>汕尾市城区捷胜镇卫生院</t>
-  </si>
-  <si>
-    <t>115.44581342547258,22.716765996010427</t>
-  </si>
-  <si>
-    <t>汕尾市城区马宫街道社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>115.25155126757859,22.794263367007716</t>
-  </si>
-  <si>
-    <t>商圈</t>
-  </si>
-  <si>
-    <t>汕尾市城区慢性病防治站</t>
-  </si>
-  <si>
-    <t>115.3699179393336,22.78731356793085</t>
-  </si>
-  <si>
-    <t>汕尾市城区新港街道社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>115.36692154249245,22.777792824692916</t>
-  </si>
-  <si>
-    <t>汕尾市妇幼保健院</t>
-  </si>
-  <si>
-    <t>115.38097906163377,22.784416148381027</t>
-  </si>
-  <si>
-    <t>汕尾市华侨管理区人民医院</t>
-  </si>
-  <si>
-    <t>115.92661813484519,22.99243711647649</t>
-  </si>
-  <si>
-    <t>汕尾市人民医院</t>
-  </si>
-  <si>
-    <t>汕尾逸挥基金医院</t>
-  </si>
-  <si>
-    <t>115.37210810428489,22.793595780994178</t>
-  </si>
-  <si>
-    <t>115.512214,22.707532</t>
-  </si>
-  <si>
-    <t>115.569835,22.67856</t>
-  </si>
-  <si>
-    <t>115.510387,22.956054</t>
-  </si>
-  <si>
-    <t>115.898949,23.006993</t>
-  </si>
-  <si>
-    <t>115.079049,22.878461</t>
-  </si>
-  <si>
-    <t>115.403183,23.067839</t>
-  </si>
-  <si>
-    <t>115.168485,22.814733</t>
-  </si>
-  <si>
-    <t>115.460485,22.9506</t>
-  </si>
-  <si>
-    <t>115.304541,22.918691</t>
-  </si>
-  <si>
-    <t>115.221902,22.90268</t>
-  </si>
-  <si>
-    <t>115.043867,22.779624</t>
-  </si>
-  <si>
-    <t>115.849479,23.035516</t>
-  </si>
-  <si>
-    <t>115.793585,22.951815</t>
-  </si>
-  <si>
-    <t>115.667233,22.952489</t>
-  </si>
-  <si>
-    <t>115.643353,22.957522</t>
-  </si>
-  <si>
-    <t>115.680047,23.309089</t>
-  </si>
-  <si>
-    <t>115.612791,22.961224</t>
-  </si>
-  <si>
-    <t>115.837016,22.822784</t>
-  </si>
-  <si>
-    <t>115.916611,22.912809</t>
-  </si>
-  <si>
-    <t>115.795612,22.926576</t>
-  </si>
-  <si>
-    <t>115.678744,22.941377</t>
-  </si>
-  <si>
-    <t>115.714642,23.295286</t>
-  </si>
-  <si>
-    <t>115.614011,23.182753</t>
-  </si>
-  <si>
-    <t>115.594463,23.258172</t>
-  </si>
-  <si>
-    <t>115.732847,23.329912</t>
-  </si>
-  <si>
-    <t>115.66175,23.313018</t>
-  </si>
-  <si>
-    <t>115.381027,22.784584</t>
-  </si>
-  <si>
-    <t>115.461579,22.723262</t>
-  </si>
-  <si>
-    <t>115.251006,22.794281</t>
+    <t>汕头升保脑血管病医院</t>
+  </si>
+  <si>
+    <t>116.68203452142549,23.373838425814313</t>
+  </si>
+  <si>
+    <t>汕头市龙湖人民医院</t>
+  </si>
+  <si>
+    <t>116.73258911366193,23.37423799392993</t>
+  </si>
+  <si>
+    <t>汕头市龙湖区第二人民医院</t>
+  </si>
+  <si>
+    <t>汕头市龙湖区第三人民医院</t>
+  </si>
+  <si>
+    <t>116.72366553716952,23.417288276177274</t>
+  </si>
+  <si>
+    <t>汕头市龙湖区新溪镇卫生院</t>
+  </si>
+  <si>
+    <t>116.79916934863171,23.39072337180858</t>
+  </si>
+  <si>
+    <t>汕头市龙湖区外砂镇卫生院</t>
+  </si>
+  <si>
+    <t>116.74256134595547,23.45477411968297</t>
+  </si>
+  <si>
+    <t>汕头市濠江区人民医院</t>
+  </si>
+  <si>
+    <t>116.73351658894812,23.291546359756765</t>
+  </si>
+  <si>
+    <t>汕头市濠江区河浦人民医院</t>
+  </si>
+  <si>
+    <t>116.678622457964,23.25886893206257</t>
+  </si>
+  <si>
+    <t>汕头市第三人民医院</t>
+  </si>
+  <si>
+    <t>汕头市濠江区珠浦医院</t>
+  </si>
+  <si>
+    <t>116.69627098841417,23.300128231786484</t>
+  </si>
+  <si>
+    <t>汕头市澄海区人民医院</t>
+  </si>
+  <si>
+    <t>116.78275576457926,23.473340690947666</t>
+  </si>
+  <si>
+    <t>汕头市澄海区中医医院</t>
+  </si>
+  <si>
+    <t>116.77389381453973,23.477609164340326</t>
+  </si>
+  <si>
+    <t>汕头市澄海区妇幼保健院</t>
+  </si>
+  <si>
+    <t>116.7783957525507,23.47077407691417</t>
+  </si>
+  <si>
+    <t>汕头市澄海区莲上镇卫生院</t>
+  </si>
+  <si>
+    <t>116.79869113120209,23.519048530796884</t>
+  </si>
+  <si>
+    <t>汕头市澄海区隆都中心卫生院</t>
+  </si>
+  <si>
+    <t>116.74001691895525,23.576242105239764</t>
+  </si>
+  <si>
+    <t>地产小区</t>
+  </si>
+  <si>
+    <t>汕头市澄海区澄华街道社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>116.77600444711443,23.47004649221143</t>
+  </si>
+  <si>
+    <t>汕头市澄海区东里中心卫生院</t>
+  </si>
+  <si>
+    <t>116.76242504838574,23.472341401523146</t>
+  </si>
+  <si>
+    <t>汕头市澄海区凤翔街道坝头社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>116.82460561203698,23.439096593731428</t>
+  </si>
+  <si>
+    <t>汕头市澄海区莲华镇卫生院</t>
+  </si>
+  <si>
+    <t>116.81131915163328,23.575777344899905</t>
+  </si>
+  <si>
+    <t>汕头市澄海区莲下中心卫生院</t>
+  </si>
+  <si>
+    <t>116.7946019924203,23.50950897792872</t>
+  </si>
+  <si>
+    <t>汕头市澄海区盐鸿镇卫生院</t>
+  </si>
+  <si>
+    <t>116.87295876828288,23.606953475306085</t>
+  </si>
+  <si>
+    <t>汕头市澄海区上华镇卫生院</t>
+  </si>
+  <si>
+    <t>116.72401224716404,23.527967852027185</t>
+  </si>
+  <si>
+    <t>汕头市澄海区溪南镇卫生院</t>
+  </si>
+  <si>
+    <t>116.85451378310002,23.538528631671678</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区大峰医院</t>
+  </si>
+  <si>
+    <t>116.50875866488262,23.269911815681915</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区人民医院</t>
+  </si>
+  <si>
+    <t>116.60139139275255,23.271207081567237</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区中医医院</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区妇幼保健院</t>
+  </si>
+  <si>
+    <t>116.60567918101815,23.265026598430563</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区城南街道社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>116.61074116310759,23.254402205494753</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区关埠镇中心卫生院</t>
+  </si>
+  <si>
+    <t>116.46611430393041,23.46326173965304</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区贵屿镇卫生院</t>
+  </si>
+  <si>
+    <t>116.35920822374928,23.323353246245503</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区海门镇卫生院</t>
+  </si>
+  <si>
+    <t>116.62516351735368,23.18978809324256</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区河溪镇卫生院</t>
+  </si>
+  <si>
+    <t>116.5523741318196,23.336036054460337</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区文光街道社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>116.60795575667133,23.268786650409883</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区西胪镇卫生院</t>
+  </si>
+  <si>
+    <t>116.49525689591945,23.366634751126107</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区谷饶镇中心卫生院</t>
+  </si>
+  <si>
+    <t>116.42880471170517,23.38429527553894</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区和平镇卫生院</t>
+  </si>
+  <si>
+    <t>116.49124212964743,23.260264965099807</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区金浦街道社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>116.55543222338487,23.255565249259504</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区金灶镇卫生院</t>
+  </si>
+  <si>
+    <t>116.40483594263814,23.462561040038953</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区铜盂镇卫生院</t>
+  </si>
+  <si>
+    <t>116.4306795606429,23.313768380125097</t>
+  </si>
+  <si>
+    <t>汕头市潮阳区棉北街道社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>116.61110431748276,23.281078985494716</t>
+  </si>
+  <si>
+    <t>潮阳同济医院</t>
+  </si>
+  <si>
+    <t>115.64621658308508,22.944265543954963</t>
+  </si>
+  <si>
+    <t>汕头市潮南区人民医院</t>
+  </si>
+  <si>
+    <t>116.42965607805706,23.255767842887533</t>
+  </si>
+  <si>
+    <t>汕头市潮南区陈店镇卫生院</t>
+  </si>
+  <si>
+    <t>116.32419269449058,23.275920378268324</t>
+  </si>
+  <si>
+    <t>汕头市潮南区胪岗镇卫生院</t>
+  </si>
+  <si>
+    <t>116.47120748956004,23.22097250597521</t>
+  </si>
+  <si>
+    <t>汕头市潮南区井都镇卫生院</t>
+  </si>
+  <si>
+    <t>116.57630521158067,23.19093101490639</t>
+  </si>
+  <si>
+    <t>汕头市潮南区成田镇卫生院</t>
+  </si>
+  <si>
+    <t>116.45228023289481,23.154263196015908</t>
+  </si>
+  <si>
+    <t>汕头市潮南区两英中心卫生院</t>
+  </si>
+  <si>
+    <t>116.36835211685438,23.21827284936581</t>
+  </si>
+  <si>
+    <t>汕头市潮南区陇田中心卫生院</t>
+  </si>
+  <si>
+    <t>116.43949131426885,23.25634143267327</t>
+  </si>
+  <si>
+    <t>汕头市潮南区司马浦镇卫生院</t>
+  </si>
+  <si>
+    <t>116.38417743566244,23.2705499214521</t>
+  </si>
+  <si>
+    <t>汕头市潮南区仙城镇卫生院</t>
+  </si>
+  <si>
+    <t>116.32352977916004,23.242041305812563</t>
+  </si>
+  <si>
+    <t>南澳县人民医院</t>
+  </si>
+  <si>
+    <t>117.02695793540201,23.42958266249444</t>
+  </si>
+  <si>
+    <t>南澳县后宅镇卫生院</t>
+  </si>
+  <si>
+    <t>117.03622503110778,23.424398567953368</t>
+  </si>
+  <si>
+    <t>南澳县云澳中心卫生院</t>
+  </si>
+  <si>
+    <t>117.10696426877372,23.413758474854422</t>
+  </si>
+  <si>
+    <t>南澳县青澳旅游度假区卫生院</t>
+  </si>
+  <si>
+    <t>117.14325334461792,23.45066701286071</t>
+  </si>
+  <si>
+    <t>旅游景点</t>
+  </si>
+  <si>
+    <t>南澳县深澳镇卫生院</t>
+  </si>
+  <si>
+    <t>117.11716195239426,23.46510742812799</t>
   </si>
 </sst>
 </file>
@@ -949,13 +892,13 @@
   <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="71.125" customWidth="1"/>
-    <col min="3" max="3" width="55.75" customWidth="1"/>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -977,19 +920,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -997,13 +931,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1011,22 +945,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1034,22 +959,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1057,22 +973,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1080,13 +987,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1094,13 +1010,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1108,22 +1024,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>156</v>
-      </c>
       <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1131,13 +1038,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1145,13 +1052,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1159,13 +1066,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1173,13 +1080,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1187,22 +1094,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1210,13 +1117,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1224,22 +1125,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1247,13 +1139,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1261,22 +1153,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1284,22 +1176,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1307,22 +1190,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1330,13 +1204,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1344,13 +1218,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1358,13 +1241,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
         <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1372,13 +1264,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1386,22 +1278,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
-        <v>162</v>
-      </c>
       <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1409,13 +1292,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1423,13 +1306,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1437,22 +1320,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1460,22 +1334,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1483,22 +1357,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1506,13 +1380,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1520,22 +1403,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1543,22 +1417,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1566,22 +1431,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1589,13 +1445,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
         <v>72</v>
       </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1603,13 +1459,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
-        <v>75</v>
-      </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1617,13 +1473,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
         <v>76</v>
       </c>
-      <c r="C37" t="s">
-        <v>77</v>
-      </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1631,13 +1487,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
         <v>78</v>
       </c>
-      <c r="C38" t="s">
-        <v>79</v>
-      </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1645,22 +1501,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>81</v>
-      </c>
-      <c r="G39" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1668,13 +1524,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
         <v>83</v>
       </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1682,13 +1538,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
         <v>85</v>
       </c>
-      <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
+      <c r="G41" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1696,13 +1561,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
         <v>87</v>
       </c>
-      <c r="C42" t="s">
-        <v>88</v>
-      </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1710,22 +1575,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
         <v>89</v>
       </c>
-      <c r="C43" t="s">
-        <v>170</v>
-      </c>
       <c r="D43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1733,22 +1589,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
         <v>91</v>
       </c>
-      <c r="C44" t="s">
-        <v>171</v>
-      </c>
       <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1756,13 +1603,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
         <v>93</v>
       </c>
-      <c r="C45" t="s">
-        <v>94</v>
-      </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1770,13 +1617,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
         <v>95</v>
       </c>
-      <c r="C46" t="s">
-        <v>96</v>
-      </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1784,13 +1631,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
         <v>97</v>
       </c>
-      <c r="C47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
+      <c r="G47" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1798,13 +1654,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
         <v>99</v>
       </c>
-      <c r="C48" t="s">
-        <v>100</v>
-      </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1812,13 +1668,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
         <v>101</v>
       </c>
-      <c r="C49" t="s">
-        <v>102</v>
-      </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1826,22 +1682,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1849,22 +1696,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
         <v>104</v>
       </c>
-      <c r="C51" t="s">
-        <v>173</v>
-      </c>
       <c r="D51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1872,22 +1710,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
         <v>106</v>
       </c>
-      <c r="C52" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" t="s">
-        <v>107</v>
-      </c>
       <c r="G52" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1895,22 +1733,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
         <v>108</v>
       </c>
-      <c r="C53" t="s">
-        <v>174</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" t="s">
-        <v>107</v>
-      </c>
       <c r="G53" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1924,7 +1762,7 @@
         <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1938,7 +1776,7 @@
         <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1949,10 +1787,19 @@
         <v>113</v>
       </c>
       <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
         <v>114</v>
       </c>
-      <c r="D56" t="s">
-        <v>9</v>
+      <c r="G56" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1963,19 +1810,10 @@
         <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" t="s">
-        <v>116</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1986,10 +1824,19 @@
         <v>117</v>
       </c>
       <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
         <v>118</v>
       </c>
-      <c r="D58" t="s">
-        <v>9</v>
+      <c r="G58" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2000,19 +1847,19 @@
         <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F59" t="s">
         <v>120</v>
       </c>
       <c r="G59" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2023,19 +1870,19 @@
         <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
         <v>122</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2049,7 +1896,7 @@
         <v>124</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2060,19 +1907,19 @@
         <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="G62" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2080,13 +1927,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2094,13 +1950,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2108,13 +1964,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2122,22 +1978,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" t="s">
-        <v>133</v>
-      </c>
-      <c r="G66" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2145,13 +1992,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2159,22 +2006,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" t="s">
-        <v>137</v>
-      </c>
-      <c r="G68" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2182,22 +2020,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G69" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2208,10 +2046,19 @@
         <v>141</v>
       </c>
       <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" t="s">
         <v>142</v>
       </c>
-      <c r="D70" t="s">
-        <v>9</v>
+      <c r="G70" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2225,7 +2072,7 @@
         <v>144</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2236,10 +2083,19 @@
         <v>145</v>
       </c>
       <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
         <v>146</v>
       </c>
-      <c r="D72" t="s">
-        <v>9</v>
+      <c r="G72" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2250,10 +2106,19 @@
         <v>147</v>
       </c>
       <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
         <v>148</v>
       </c>
-      <c r="D73" t="s">
-        <v>9</v>
+      <c r="G73" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2264,10 +2129,10 @@
         <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2275,63 +2140,137 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>158</v>
+      </c>
+      <c r="G78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>161</v>
+      </c>
+      <c r="G79" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="5:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E140" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="5:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E142" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="5:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E145" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="5:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E147" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="5:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E148" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="5:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E149" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="5:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E151" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="5:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E152" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="5:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E155" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="5:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E156" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2278,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 A3:G3 A2:B2 D2:G2 A7:G8 A4:B4 D4:G4 A5:B5 D5:G5 A6:B6 D6:G6 A10:G13 A9:B9 D9:G9 A15:G15 A14:B14 D14:G14 A17:G17 A16:B16 D16:G16 A21:G24 A18:B18 D18:G18 A19:B19 D19:G19 A20:B20 D20:G20 A26:G27 A25:B25 D25:G25 A31:G31 A28:B28 D28:G28 A29:B29 D29:G29 A30:B30 D30:G30 A35:G38 A32:B32 D32:G32 A33:B33 D33:G33 A34:B34 D34:G34 A40:G42 A39:B39 D39:G39 A45:G49 A43:B43 D43:G43 A44:B44 D44:G44 A54:G56 A50:B50 D50:G50 A51:B51 D51:G51 A52:B52 D52:G52 A53:B53 D53:G53 A58:G58 A57:B57 D57:G57 A61:G61 A59:B59 D59:G59 A60:B60 D60:G60 A63:G65 A62:B62 D62:G62 A67:G67 A66:B66 D66:G66 A70:G156 A68:B68 D68:G68 A69:B69 D69:G69" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G75 A80:G156 B76:G79" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/baiduGet/lib/医院.xlsx
+++ b/node/baiduGet/lib/医院.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\tips-github\node\baiduGet\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EEA946-8E6C-400F-AAB6-D706C71C6D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC49818-5FE4-41A7-9967-71CF1F83594E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>序号</t>
   </si>
@@ -31,91 +31,142 @@
     <t>经纬度</t>
   </si>
   <si>
-    <t>深圳市龙华区民治街道新瑞社区健康服务中心</t>
+    <t>深圳新桥卫生院</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>114.04094234211416,22.61865416526011</t>
+    <t>114.49087604334113,22.581308357871762</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>江门市残联康复医院</t>
+  </si>
+  <si>
+    <t>113.07399744767555,22.572308519903775</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>深圳沙河医院</t>
+  </si>
+  <si>
+    <t>113.97571202676602,22.547498009877806</t>
+  </si>
+  <si>
+    <t>东莞曙光医院有限公司</t>
+  </si>
+  <si>
+    <t>113.63293795784013,22.852357966049293</t>
+  </si>
+  <si>
+    <t>珠海容永道长者护理院</t>
+  </si>
+  <si>
+    <t>113.53658696649943,22.24726597239081</t>
+  </si>
+  <si>
+    <t>珠海振国肿瘤康复医院</t>
+  </si>
+  <si>
+    <t>113.58191842692614,22.29757937947498</t>
+  </si>
+  <si>
+    <t>深圳市宝安区社会福利中心</t>
+  </si>
+  <si>
+    <t>113.84515562771934,22.645142775315627</t>
+  </si>
+  <si>
+    <t>政府机构</t>
+  </si>
+  <si>
+    <t>惠州市中心血站</t>
+  </si>
+  <si>
+    <t>115.39227900025028,22.790418990770263</t>
+  </si>
+  <si>
+    <t>深圳景田医院</t>
+  </si>
+  <si>
+    <t>114.04869198332244,22.555173020778525</t>
+  </si>
+  <si>
+    <t>东莞康华医院有限公司</t>
+  </si>
+  <si>
+    <t>113.7161058666735,22.976827114642738</t>
+  </si>
+  <si>
+    <t>深圳市罗湖区水贝社区健康服务中心</t>
+  </si>
+  <si>
+    <t>114.12991101835256,22.575518996138193</t>
+  </si>
+  <si>
+    <t>东莞仁康医院有限公司</t>
+  </si>
+  <si>
+    <t>113.65790357473463,22.904623666528387</t>
+  </si>
+  <si>
+    <t>深圳华侨城医院</t>
+  </si>
+  <si>
+    <t>113.99690098763674,22.548290998076396</t>
+  </si>
+  <si>
+    <t>深圳监狱医院</t>
+  </si>
+  <si>
+    <t>114.06455183658751,22.548456637984177</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深圳罗岗医院 </t>
+  </si>
+  <si>
+    <t>114.13250801958104,22.602413992239175</t>
+  </si>
+  <si>
+    <t>深圳市坪山区龙田街道龙湾社区健康服务中心</t>
+  </si>
+  <si>
+    <t>114.37063249337625,22.7351546546247</t>
   </si>
   <si>
     <t>乡镇</t>
   </si>
   <si>
-    <t>深圳市龙华区龙华街道幸福社区健康服务中心</t>
-  </si>
-  <si>
-    <t>114.04352068733382,22.66512512798433</t>
-  </si>
-  <si>
-    <t>深圳市福田区福新社区健康服务中心</t>
-  </si>
-  <si>
-    <t>114.0588584660977,22.548717572584582</t>
-  </si>
-  <si>
-    <t>医疗</t>
-  </si>
-  <si>
-    <t>深圳市龙华区龙华街道新健社区健康服务中心</t>
-  </si>
-  <si>
-    <t>深圳市龙华区观澜街道逸康社区健康服务中心</t>
-  </si>
-  <si>
-    <t>114.04673897731385,22.72781502882485</t>
-  </si>
-  <si>
-    <t>深圳市光明区大围社区健康服务中心</t>
-  </si>
-  <si>
-    <t>113.91377134661808,22.765731417917888</t>
-  </si>
-  <si>
-    <t>深圳怡宁医院</t>
-  </si>
-  <si>
-    <t>114.0849689733643,22.696260982570696</t>
-  </si>
-  <si>
-    <t>东莞东华医院有限公司松山湖院区</t>
-  </si>
-  <si>
-    <t>113.79253289096222,23.03690813857003</t>
-  </si>
-  <si>
-    <t>湛江市赤坎区调顺街道社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>110.42171934897114,21.302380751291423</t>
-  </si>
-  <si>
-    <t>东莞市长安镇乌沙医院有限公司</t>
-  </si>
-  <si>
-    <t>113.7887179671237,22.800294986692407</t>
-  </si>
-  <si>
-    <t>湛江经济技术开发区乐华社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>110.50304303659313,21.022557950927563</t>
-  </si>
-  <si>
-    <t>湛江市赤坎区北桥街道社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>110.36933942419329,21.281227720249213</t>
-  </si>
-  <si>
-    <t>湛江麻章甲状腺专科医院</t>
-  </si>
-  <si>
-    <t>110.32993938521646,21.270490268495166</t>
-  </si>
-  <si>
-    <t>遂溪城南医院</t>
+    <t>深圳市坪山区坑梓街道宝梓社区健康服务中心</t>
+  </si>
+  <si>
+    <t>114.40104927603583,22.754093774454997</t>
+  </si>
+  <si>
+    <t>深圳市坪山区坪山街道澳子头社区健康服务中心</t>
+  </si>
+  <si>
+    <t>114.3241459593862,22.689510388456792</t>
+  </si>
+  <si>
+    <t>村庄</t>
+  </si>
+  <si>
+    <t>深圳市坪山区龙田街道上坝社区健康服务中心</t>
+  </si>
+  <si>
+    <t>114.40370447668167,22.714135211180558</t>
+  </si>
+  <si>
+    <t>遂溪方济医院</t>
   </si>
   <si>
     <t>110.25651530641605,21.3831029620292</t>
@@ -124,100 +175,46 @@
     <t>区县</t>
   </si>
   <si>
-    <t>湛江市赤坎区寸金街道社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>110.36451094224819,21.28476771085059</t>
-  </si>
-  <si>
-    <t>湛江开发区仁瑞医院</t>
-  </si>
-  <si>
-    <t>110.36403403185311,21.033605011555345</t>
-  </si>
-  <si>
-    <t>工业园区</t>
-  </si>
-  <si>
-    <t>湛江岭南医院有限公司</t>
-  </si>
-  <si>
-    <t>110.38550595895936,21.24367399736514</t>
-  </si>
-  <si>
-    <t>东莞瑞康中西医结合医院有限公司</t>
-  </si>
-  <si>
-    <t>113.7579030339029,22.99636997996748</t>
-  </si>
-  <si>
-    <t>广东省梅州监狱</t>
-  </si>
-  <si>
-    <t>115.38155260365083,22.79126303654673</t>
-  </si>
-  <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t>东莞东华医院有限公司</t>
-  </si>
-  <si>
-    <t>汕头市潮南区红场镇卫生院</t>
-  </si>
-  <si>
-    <t>116.33304300967714,23.12140698356937</t>
-  </si>
-  <si>
-    <t>汕头市濠江区达濠街道社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>116.73484500313585,23.28283007887039</t>
-  </si>
-  <si>
-    <t>汕头市金平区岐山街道社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>116.69942697282234,23.39374001649566</t>
-  </si>
-  <si>
-    <t>汕头市濠江区马滘街道社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>116.73923099685467,23.2637045068835</t>
-  </si>
-  <si>
-    <t>汕头市潮南区雷岭镇卫生院</t>
-  </si>
-  <si>
-    <t>116.38011897940365,23.08608001285063</t>
-  </si>
-  <si>
-    <t>深圳仁合医院</t>
-  </si>
-  <si>
-    <t>114.0281589651349,22.64113499493219</t>
-  </si>
-  <si>
-    <t>114.043005,22.624803</t>
-  </si>
-  <si>
-    <t>114.04302,22.66643</t>
-  </si>
-  <si>
-    <t>114.055146,22.642479</t>
-  </si>
-  <si>
-    <t>110.248906,21.362799</t>
-  </si>
-  <si>
-    <t>110.364324,21.031492</t>
-  </si>
-  <si>
-    <t>116.086782,24.270392</t>
-  </si>
-  <si>
-    <t>116.723536,23.277168</t>
+    <t xml:space="preserve">深圳仁康医院 </t>
+  </si>
+  <si>
+    <t>114.12447797679945,22.591016003028518</t>
+  </si>
+  <si>
+    <t>深圳健安医院</t>
+  </si>
+  <si>
+    <t>114.04466802379181,22.635037041351197</t>
+  </si>
+  <si>
+    <t>深圳博爱曙光医院</t>
+  </si>
+  <si>
+    <t>114.11421402787639,22.553348974378782</t>
+  </si>
+  <si>
+    <t>113.846506,22.740464</t>
+  </si>
+  <si>
+    <t>113.845219,22.645343</t>
+  </si>
+  <si>
+    <t>114.406249,22.698348</t>
+  </si>
+  <si>
+    <t>114.37513,22.760216</t>
+  </si>
+  <si>
+    <t>114.389604,22.752467</t>
+  </si>
+  <si>
+    <t>114.324171,22.684453</t>
+  </si>
+  <si>
+    <t>114.40604,22.715801</t>
+  </si>
+  <si>
+    <t>110.224423,21.400949</t>
   </si>
 </sst>
 </file>
@@ -601,16 +598,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="81.625" customWidth="1"/>
-    <col min="3" max="3" width="62.625" customWidth="1"/>
+    <col min="2" max="2" width="81.125" customWidth="1"/>
+    <col min="3" max="3" width="73.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -632,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -655,19 +652,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -675,13 +663,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -692,126 +680,126 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -820,29 +808,29 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -851,40 +839,58 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -893,7 +899,7 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -901,88 +907,55 @@
     </row>
     <row r="21" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +963,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 A4:G4 A2:B2 D2:G2 A3:B3 D3:G3 A6:G14 A5:B5 D5:G5 A16:G16 A15:B15 D15:G15 A18:G19 A17:B17 D17:G17 A21:G24 A20:B20 D20:G20 A26:G27 A25:B25 D25:G25" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 A3:G7 A2:B2 D2:G2 A9:G14 A8:B8 D8:G8 A16:G16 A15:B15 D15:G15 A22:G24 A17:B17 D17:G17 A18:B18 D18:G18 A19:B19 D19:G19 A20:B20 D20:G20 A21:B21 D21:G21" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>